--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H2">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I2">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J2">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.5329301803539</v>
+        <v>22.23552099999999</v>
       </c>
       <c r="N2">
-        <v>17.5329301803539</v>
+        <v>66.70656299999999</v>
       </c>
       <c r="O2">
-        <v>0.3684226018515588</v>
+        <v>0.4229672982130729</v>
       </c>
       <c r="P2">
-        <v>0.3684226018515588</v>
+        <v>0.422967298213073</v>
       </c>
       <c r="Q2">
-        <v>4.76625913127394</v>
+        <v>6.659419950054666</v>
       </c>
       <c r="R2">
-        <v>4.76625913127394</v>
+        <v>59.934779550492</v>
       </c>
       <c r="S2">
-        <v>0.1822411780441074</v>
+        <v>0.2110374912288345</v>
       </c>
       <c r="T2">
-        <v>0.1822411780441074</v>
+        <v>0.2110374912288346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H3">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I3">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J3">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.084694241789</v>
+        <v>22.25678066666667</v>
       </c>
       <c r="N3">
-        <v>22.084694241789</v>
+        <v>66.770342</v>
       </c>
       <c r="O3">
-        <v>0.4640696352497428</v>
+        <v>0.4233717026689395</v>
       </c>
       <c r="P3">
-        <v>0.4640696352497428</v>
+        <v>0.4233717026689395</v>
       </c>
       <c r="Q3">
-        <v>6.003638553769403</v>
+        <v>6.665787106836445</v>
       </c>
       <c r="R3">
-        <v>6.003638553769403</v>
+        <v>59.992083961528</v>
       </c>
       <c r="S3">
-        <v>0.2295532266407681</v>
+        <v>0.2112392668795016</v>
       </c>
       <c r="T3">
-        <v>0.2295532266407681</v>
+        <v>0.2112392668795016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H4">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I4">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J4">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.97155738222994</v>
+        <v>8.078006</v>
       </c>
       <c r="N4">
-        <v>7.97155738222994</v>
+        <v>24.234018</v>
       </c>
       <c r="O4">
-        <v>0.1675077628986985</v>
+        <v>0.1536609991179876</v>
       </c>
       <c r="P4">
-        <v>0.1675077628986985</v>
+        <v>0.1536609991179876</v>
       </c>
       <c r="Q4">
-        <v>2.167036985415105</v>
+        <v>2.419319714301333</v>
       </c>
       <c r="R4">
-        <v>2.167036985415105</v>
+        <v>21.773877428712</v>
       </c>
       <c r="S4">
-        <v>0.08285814140819567</v>
+        <v>0.07666841358794665</v>
       </c>
       <c r="T4">
-        <v>0.08285814140819567</v>
+        <v>0.07666841358794665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H5">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I5">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J5">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.5329301803539</v>
+        <v>22.23552099999999</v>
       </c>
       <c r="N5">
-        <v>17.5329301803539</v>
+        <v>66.70656299999999</v>
       </c>
       <c r="O5">
-        <v>0.3684226018515588</v>
+        <v>0.4229672982130729</v>
       </c>
       <c r="P5">
-        <v>0.3684226018515588</v>
+        <v>0.422967298213073</v>
       </c>
       <c r="Q5">
-        <v>4.869310661946425</v>
+        <v>6.687577531480999</v>
       </c>
       <c r="R5">
-        <v>4.869310661946425</v>
+        <v>60.18819778332899</v>
       </c>
       <c r="S5">
-        <v>0.1861814238074515</v>
+        <v>0.2119298069842384</v>
       </c>
       <c r="T5">
-        <v>0.1861814238074515</v>
+        <v>0.2119298069842384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H6">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I6">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J6">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.084694241789</v>
+        <v>22.25678066666667</v>
       </c>
       <c r="N6">
-        <v>22.084694241789</v>
+        <v>66.770342</v>
       </c>
       <c r="O6">
-        <v>0.4640696352497428</v>
+        <v>0.4233717026689395</v>
       </c>
       <c r="P6">
-        <v>0.4640696352497428</v>
+        <v>0.4233717026689395</v>
       </c>
       <c r="Q6">
-        <v>6.133443527760593</v>
+        <v>6.693971610087334</v>
       </c>
       <c r="R6">
-        <v>6.133443527760593</v>
+        <v>60.245744490786</v>
       </c>
       <c r="S6">
-        <v>0.2345164086089748</v>
+        <v>0.2121324357894379</v>
       </c>
       <c r="T6">
-        <v>0.2345164086089748</v>
+        <v>0.2121324357894379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H7">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I7">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J7">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.97155738222994</v>
+        <v>8.078006</v>
       </c>
       <c r="N7">
-        <v>7.97155738222994</v>
+        <v>24.234018</v>
       </c>
       <c r="O7">
-        <v>0.1675077628986985</v>
+        <v>0.1536609991179876</v>
       </c>
       <c r="P7">
-        <v>0.1675077628986985</v>
+        <v>0.1536609991179876</v>
       </c>
       <c r="Q7">
-        <v>2.213890602102796</v>
+        <v>2.429549162566</v>
       </c>
       <c r="R7">
-        <v>2.213890602102796</v>
+        <v>21.865942463094</v>
       </c>
       <c r="S7">
-        <v>0.08464962149050281</v>
+        <v>0.07699258553004089</v>
       </c>
       <c r="T7">
-        <v>0.08464962149050281</v>
+        <v>0.07699258553004089</v>
       </c>
     </row>
   </sheetData>
